--- a/biology/Écologie/Convention_des_Nations_unies_sur_la_lutte_contre_la_désertification/Convention_des_Nations_unies_sur_la_lutte_contre_la_désertification.xlsx
+++ b/biology/Écologie/Convention_des_Nations_unies_sur_la_lutte_contre_la_désertification/Convention_des_Nations_unies_sur_la_lutte_contre_la_désertification.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Convention_des_Nations_unies_sur_la_lutte_contre_la_d%C3%A9sertification</t>
+          <t>Convention_des_Nations_unies_sur_la_lutte_contre_la_désertification</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Convention des Nations unies sur la lutte contre la désertification (CLD, ou CNULCD) est la dernière des trois conventions de Rio à avoir été adoptée. Elle a été adoptée à Paris, deux ans après le Sommet de Rio, le 17 juin 1994, et est entrée en vigueur le 25 décembre 1996, 90 jours après réception de la cinquantième ratification. 197 pays font partie de la CLD. 
 Elle traite de la désertification définie comme « la dégradation des terres dans les zones arides, semi-arides et subhumides sèches par suite de divers facteurs, parmi lesquels les variations climatiques et les activités humaines » et des moyens de lutte adaptée : « mise en valeur intégrée des terres dans les zones arides, semi-arides et subhumides sèches, en vue d'un développement durable et qui visent à : prévenir et/ou réduire la dégradation des terres, remettre en état les terres partiellement dégradées, et restaurer les terres désertifiées ».
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Convention_des_Nations_unies_sur_la_lutte_contre_la_d%C3%A9sertification</t>
+          <t>Convention_des_Nations_unies_sur_la_lutte_contre_la_désertification</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation de la Convention</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon les dispositions de l'article 2 du texte de la Convention, l'objectif de cette Convention est « ...de lutter contre la désertification et d’atténuer les effets de la sécheresse dans les pays gravement touchés par la sécheresse et/ou la désertification, en particulier en Afrique, grâce à des mesures efficaces à tous les niveaux, appuyées par des arrangements internationaux de coopération et de partenariat, dans le cadre d’une approche intégrée compatible avec le programme Action 21, en vue de contribuer à l’instauration d’un développement durable dans les zones touchées. »
 Pour atteindre cet objectif, les quatre principes suivants sont préconisés, dans l'article 3 de la Convention :
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Convention_des_Nations_unies_sur_la_lutte_contre_la_d%C3%A9sertification</t>
+          <t>Convention_des_Nations_unies_sur_la_lutte_contre_la_désertification</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,12 +563,14 @@
           <t>Conférence des parties</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La Conférence des parties (CP ou COP) s’est réunie annuellement entre 1997 et 2001, puis sur une base bisannuelle par la suite[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Conférence des parties (CP ou COP) s’est réunie annuellement entre 1997 et 2001, puis sur une base bisannuelle par la suite.
 La 8e Conférence des Parties (COP-8), qui a eu lieu en septembre 2007 à Madrid (Espagne) a adopté le « Plan-cadre stratégique décennal visant à renforcer la mise en œuvre de la Convention pour la période 2008-2018 ».
-Depuis sa 9e session de la Conférence des parties à la CLD (Buenos Aires, septembre et octobre 2009), le Comité chargé de l’examen de la mise en œuvre (CRIC) de la CLD a le statut d’organe subsidiaire. Par ailleurs, la COP-9 a convenu que son Comité scientifique et technique (CST-9), jusqu’ici composé de diplomates, serait désormais organisé dans le format des conférences scientifiques[2].
-Liste des COP</t>
+Depuis sa 9e session de la Conférence des parties à la CLD (Buenos Aires, septembre et octobre 2009), le Comité chargé de l’examen de la mise en œuvre (CRIC) de la CLD a le statut d’organe subsidiaire. Par ailleurs, la COP-9 a convenu que son Comité scientifique et technique (CST-9), jusqu’ici composé de diplomates, serait désormais organisé dans le format des conférences scientifiques.
+</t>
         </is>
       </c>
     </row>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Convention_des_Nations_unies_sur_la_lutte_contre_la_d%C3%A9sertification</t>
+          <t>Convention_des_Nations_unies_sur_la_lutte_contre_la_désertification</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,9 +598,11 @@
           <t>Notoriété</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Journée mondiale de la lutte contre la désertification et la sécheresse[6],[7], célébrée chaque 17 juin, marque l’anniversaire de l’adoption de la Convention des Nations unies sur la lutte contre la désertification en 1994 et sa mise en œuvre en 1996.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Journée mondiale de la lutte contre la désertification et la sécheresse célébrée chaque 17 juin, marque l’anniversaire de l’adoption de la Convention des Nations unies sur la lutte contre la désertification en 1994 et sa mise en œuvre en 1996.
 </t>
         </is>
       </c>
